--- a/variables/variables_list.xlsx
+++ b/variables/variables_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jihun\Desktop\SGDS\GEOG0125 - Advanced Topics and Social and Geographic Data Science\Assignment\variables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jihun\Desktop\SGDS\GEOG0125 - Advanced Topics in Social and Geographic Data Science\Assignment\variables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E62B79-3549-46A4-9845-E4694E29C1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22CCCC2-9456-440D-8099-024A10C74824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{AE9B44E8-962F-4D05-B6AD-86318F73EB13}"/>
+    <workbookView xWindow="42390" yWindow="-5370" windowWidth="28800" windowHeight="15765" xr2:uid="{AE9B44E8-962F-4D05-B6AD-86318F73EB13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>고령인구비율</t>
   </si>
@@ -133,6 +133,18 @@
   </si>
   <si>
     <t>http://www.gisdeveloper.co.kr/?p=2332</t>
+  </si>
+  <si>
+    <t>스트레스 인지율</t>
+  </si>
+  <si>
+    <t>https://kosis.kr/statHtml/statHtml.do?sso=ok&amp;returnurl=https%3A%2F%2Fkosis.kr%3A443%2FstatHtml%2FstatHtml.do%3Fconn_path%3DMT_GTITLE01%26list_id%3D101%26obj_var_id%3D%26seqNo%3D%26tblId%3DDT_1BPB002E%26vw_cd%3DMT_GTITLE01%26itm_id%3D%26language%3Dkor%26lang_mode%3Dko%26orgId%3D101%26</t>
+  </si>
+  <si>
+    <t>추계인구</t>
+  </si>
+  <si>
+    <t>sk_provinces</t>
   </si>
 </sst>
 </file>
@@ -514,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5A3753-7B42-4B57-84C8-9558BCA273F8}">
-  <dimension ref="A2:E18"/>
+  <dimension ref="A2:E22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -577,132 +589,158 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{8243E101-9091-41DC-995F-FBB619E633C8}"/>
-    <hyperlink ref="D10" r:id="rId2" xr:uid="{F921A7C7-B3A5-460A-ACD6-D57674E79524}"/>
+    <hyperlink ref="D11" r:id="rId2" xr:uid="{F921A7C7-B3A5-460A-ACD6-D57674E79524}"/>
     <hyperlink ref="D3" r:id="rId3" xr:uid="{98F4B9D9-0903-47CD-A800-497030675F28}"/>
-    <hyperlink ref="D14" r:id="rId4" xr:uid="{9A2E10CF-B86F-4EA8-9879-5FA29AD48E7A}"/>
-    <hyperlink ref="D13" r:id="rId5" xr:uid="{17BAFCCB-ACF0-4BFC-AEAA-6D0CCA5E0639}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{ABBA1DE9-049D-4569-B0CE-467CC067760C}"/>
-    <hyperlink ref="D12" r:id="rId7" xr:uid="{356CCE5F-882D-4850-B62C-E7530EEE9EE5}"/>
+    <hyperlink ref="D15" r:id="rId4" xr:uid="{9A2E10CF-B86F-4EA8-9879-5FA29AD48E7A}"/>
+    <hyperlink ref="D14" r:id="rId5" xr:uid="{17BAFCCB-ACF0-4BFC-AEAA-6D0CCA5E0639}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{ABBA1DE9-049D-4569-B0CE-467CC067760C}"/>
+    <hyperlink ref="D13" r:id="rId7" xr:uid="{356CCE5F-882D-4850-B62C-E7530EEE9EE5}"/>
     <hyperlink ref="D5" r:id="rId8" xr:uid="{E45886F4-D6AC-49EA-B570-A598374A8EE3}"/>
-    <hyperlink ref="D8" r:id="rId9" xr:uid="{99EF687D-6C04-44D4-9C41-6A9C283EA980}"/>
-    <hyperlink ref="D9" r:id="rId10" xr:uid="{56810D07-EC8E-460D-ABFB-2768A3D5545F}"/>
-    <hyperlink ref="D11" r:id="rId11" xr:uid="{BD23561A-0B87-424F-BD97-9890D0020F08}"/>
-    <hyperlink ref="D18" r:id="rId12" xr:uid="{AB6F6D0A-2D25-44DD-AB61-31524CED75A2}"/>
+    <hyperlink ref="D9" r:id="rId9" xr:uid="{99EF687D-6C04-44D4-9C41-6A9C283EA980}"/>
+    <hyperlink ref="D10" r:id="rId10" xr:uid="{56810D07-EC8E-460D-ABFB-2768A3D5545F}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{BD23561A-0B87-424F-BD97-9890D0020F08}"/>
+    <hyperlink ref="D19" r:id="rId12" xr:uid="{AB6F6D0A-2D25-44DD-AB61-31524CED75A2}"/>
+    <hyperlink ref="D6" r:id="rId13" xr:uid="{E8CB141B-4AAA-41E8-9C7E-1A4A4FC96D10}"/>
+    <hyperlink ref="D22" r:id="rId14" display="https://kosis.kr/statHtml/statHtml.do?sso=ok&amp;returnurl=https%3A%2F%2Fkosis.kr%3A443%2FstatHtml%2FstatHtml.do%3Fconn_path%3DMT_GTITLE01%26list_id%3D101%26obj_var_id%3D%26seqNo%3D%26tblId%3DDT_1BPB002E%26vw_cd%3DMT_GTITLE01%26itm_id%3D%26language%3Dkor%26lang_mode%3Dko%26orgId%3D101%26" xr:uid="{C14397D5-E964-449F-8D46-6B90597A53F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/variables/variables_list.xlsx
+++ b/variables/variables_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jihun\Desktop\SGDS\GEOG0125 - Advanced Topics in Social and Geographic Data Science\Assignment\variables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22CCCC2-9456-440D-8099-024A10C74824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CFBCA2-046F-4309-9834-D3865BB0AF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42390" yWindow="-5370" windowWidth="28800" windowHeight="15765" xr2:uid="{AE9B44E8-962F-4D05-B6AD-86318F73EB13}"/>
+    <workbookView xWindow="42390" yWindow="-5445" windowWidth="28800" windowHeight="15840" xr2:uid="{AE9B44E8-962F-4D05-B6AD-86318F73EB13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -529,7 +529,7 @@
   <dimension ref="A2:E22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/variables/variables_list.xlsx
+++ b/variables/variables_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jihun\Desktop\SGDS\GEOG0125 - Advanced Topics in Social and Geographic Data Science\Assignment\variables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CFBCA2-046F-4309-9834-D3865BB0AF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3567C24-C88A-4F41-981B-571E9B0234C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42390" yWindow="-5445" windowWidth="28800" windowHeight="15840" xr2:uid="{AE9B44E8-962F-4D05-B6AD-86318F73EB13}"/>
+    <workbookView xWindow="38280" yWindow="-9480" windowWidth="38640" windowHeight="21840" xr2:uid="{AE9B44E8-962F-4D05-B6AD-86318F73EB13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>고령인구비율</t>
   </si>
@@ -104,9 +104,6 @@
     <t>https://kosis.kr/statHtml/statHtml.do?sso=ok&amp;returnurl=https%3A%2F%2Fkosis.kr%3A443%2FstatHtml%2FstatHtml.do%3Fconn_path%3DI2%26tblId%3DINH_1B8000I_01%26orgId%3D101%26</t>
   </si>
   <si>
-    <t>Definition</t>
-  </si>
-  <si>
     <t>Variable</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
   </si>
   <si>
     <t>Link</t>
-  </si>
-  <si>
-    <t>빈곤율</t>
   </si>
   <si>
     <t>인구밀도</t>
@@ -126,9 +120,6 @@
 https://kosis.kr/statHtml/statHtml.do?sso=ok&amp;returnurl=https%3A%2F%2Fkosis.kr%3A443%2FstatHtml%2FstatHtml.do%3Fconn_path%3DI2%26tblId%3DDT_1BPB002E%26orgId%3D101%26</t>
   </si>
   <si>
-    <t>Population in 2023 divided by Area in 2023</t>
-  </si>
-  <si>
     <t>sk_municipalities</t>
   </si>
   <si>
@@ -141,10 +132,16 @@
     <t>https://kosis.kr/statHtml/statHtml.do?sso=ok&amp;returnurl=https%3A%2F%2Fkosis.kr%3A443%2FstatHtml%2FstatHtml.do%3Fconn_path%3DMT_GTITLE01%26list_id%3D101%26obj_var_id%3D%26seqNo%3D%26tblId%3DDT_1BPB002E%26vw_cd%3DMT_GTITLE01%26itm_id%3D%26language%3Dkor%26lang_mode%3Dko%26orgId%3D101%26</t>
   </si>
   <si>
-    <t>추계인구</t>
-  </si>
-  <si>
     <t>sk_provinces</t>
+  </si>
+  <si>
+    <t>population projections</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>shapefile &amp; population</t>
   </si>
 </sst>
 </file>
@@ -205,18 +202,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -227,6 +266,30 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{75941EFA-522B-4460-81A4-4DF3CDE40011}" name="Table1" displayName="Table1" ref="B6:D19" totalsRowShown="0" headerRowDxfId="7" dataDxfId="8">
+  <autoFilter ref="B6:D19" xr:uid="{75941EFA-522B-4460-81A4-4DF3CDE40011}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{A72CF160-0593-4261-BE8C-4075AB27E94D}" name="No" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{4B8E3C81-F934-48A7-B57B-5FD66A369A5D}" name="Variable" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{9AFFA7FA-8A97-409F-B8FC-944738B7BCEC}" name="Link" dataDxfId="2" dataCellStyle="Hyperlink"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9CA39E66-BF8F-40D5-ABD2-FAECE80918DA}" name="Table2" displayName="Table2" ref="B23:D26" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4">
+  <autoFilter ref="B23:D26" xr:uid="{9CA39E66-BF8F-40D5-ABD2-FAECE80918DA}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{A6378FED-8944-4689-B102-1DA674E22A74}" name="No" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{A21DFF13-D80A-4215-978D-9DA532402193}" name="Variable" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{74407972-D561-40EA-97D5-178A36C0408C}" name="Link" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -526,221 +589,246 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5A3753-7B42-4B57-84C8-9558BCA273F8}">
-  <dimension ref="A2:E22"/>
+  <dimension ref="B4:D26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="20.6328125" customWidth="1"/>
+    <col min="3" max="3" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B12" s="1">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B13" s="1">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="1">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B15" s="1">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B16" s="1">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="1">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="1">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="1">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C21" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="D23" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="C25" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B26" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="C26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
+      <c r="D26" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{8243E101-9091-41DC-995F-FBB619E633C8}"/>
-    <hyperlink ref="D11" r:id="rId2" xr:uid="{F921A7C7-B3A5-460A-ACD6-D57674E79524}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{98F4B9D9-0903-47CD-A800-497030675F28}"/>
-    <hyperlink ref="D15" r:id="rId4" xr:uid="{9A2E10CF-B86F-4EA8-9879-5FA29AD48E7A}"/>
-    <hyperlink ref="D14" r:id="rId5" xr:uid="{17BAFCCB-ACF0-4BFC-AEAA-6D0CCA5E0639}"/>
-    <hyperlink ref="D8" r:id="rId6" xr:uid="{ABBA1DE9-049D-4569-B0CE-467CC067760C}"/>
-    <hyperlink ref="D13" r:id="rId7" xr:uid="{356CCE5F-882D-4850-B62C-E7530EEE9EE5}"/>
-    <hyperlink ref="D5" r:id="rId8" xr:uid="{E45886F4-D6AC-49EA-B570-A598374A8EE3}"/>
-    <hyperlink ref="D9" r:id="rId9" xr:uid="{99EF687D-6C04-44D4-9C41-6A9C283EA980}"/>
-    <hyperlink ref="D10" r:id="rId10" xr:uid="{56810D07-EC8E-460D-ABFB-2768A3D5545F}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{BD23561A-0B87-424F-BD97-9890D0020F08}"/>
-    <hyperlink ref="D19" r:id="rId12" xr:uid="{AB6F6D0A-2D25-44DD-AB61-31524CED75A2}"/>
-    <hyperlink ref="D6" r:id="rId13" xr:uid="{E8CB141B-4AAA-41E8-9C7E-1A4A4FC96D10}"/>
-    <hyperlink ref="D22" r:id="rId14" display="https://kosis.kr/statHtml/statHtml.do?sso=ok&amp;returnurl=https%3A%2F%2Fkosis.kr%3A443%2FstatHtml%2FstatHtml.do%3Fconn_path%3DMT_GTITLE01%26list_id%3D101%26obj_var_id%3D%26seqNo%3D%26tblId%3DDT_1BPB002E%26vw_cd%3DMT_GTITLE01%26itm_id%3D%26language%3Dkor%26lang_mode%3Dko%26orgId%3D101%26" xr:uid="{C14397D5-E964-449F-8D46-6B90597A53F1}"/>
+    <hyperlink ref="D8" r:id="rId1" xr:uid="{8243E101-9091-41DC-995F-FBB619E633C8}"/>
+    <hyperlink ref="D15" r:id="rId2" xr:uid="{F921A7C7-B3A5-460A-ACD6-D57674E79524}"/>
+    <hyperlink ref="D7" r:id="rId3" xr:uid="{98F4B9D9-0903-47CD-A800-497030675F28}"/>
+    <hyperlink ref="D19" r:id="rId4" xr:uid="{9A2E10CF-B86F-4EA8-9879-5FA29AD48E7A}"/>
+    <hyperlink ref="D18" r:id="rId5" xr:uid="{17BAFCCB-ACF0-4BFC-AEAA-6D0CCA5E0639}"/>
+    <hyperlink ref="D12" r:id="rId6" xr:uid="{ABBA1DE9-049D-4569-B0CE-467CC067760C}"/>
+    <hyperlink ref="D17" r:id="rId7" xr:uid="{356CCE5F-882D-4850-B62C-E7530EEE9EE5}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{E45886F4-D6AC-49EA-B570-A598374A8EE3}"/>
+    <hyperlink ref="D13" r:id="rId9" xr:uid="{99EF687D-6C04-44D4-9C41-6A9C283EA980}"/>
+    <hyperlink ref="D14" r:id="rId10" xr:uid="{56810D07-EC8E-460D-ABFB-2768A3D5545F}"/>
+    <hyperlink ref="D16" r:id="rId11" xr:uid="{BD23561A-0B87-424F-BD97-9890D0020F08}"/>
+    <hyperlink ref="D24" r:id="rId12" xr:uid="{AB6F6D0A-2D25-44DD-AB61-31524CED75A2}"/>
+    <hyperlink ref="D10" r:id="rId13" xr:uid="{E8CB141B-4AAA-41E8-9C7E-1A4A4FC96D10}"/>
+    <hyperlink ref="D26" r:id="rId14" display="https://kosis.kr/statHtml/statHtml.do?sso=ok&amp;returnurl=https%3A%2F%2Fkosis.kr%3A443%2FstatHtml%2FstatHtml.do%3Fconn_path%3DMT_GTITLE01%26list_id%3D101%26obj_var_id%3D%26seqNo%3D%26tblId%3DDT_1BPB002E%26vw_cd%3DMT_GTITLE01%26itm_id%3D%26language%3Dkor%26lang_mode%3Dko%26orgId%3D101%26" xr:uid="{C14397D5-E964-449F-8D46-6B90597A53F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <tableParts count="2">
+    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
+  </tableParts>
 </worksheet>
 </file>